--- a/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
+++ b/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
+++ b/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
+++ b/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
+++ b/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
+++ b/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
+++ b/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -904,7 +904,24 @@
     <t>435: fixed value = #finished when PTF - DISCHARGE DATE (45-70) if not null</t>
   </si>
   <si>
-    <t>Inpat.Census.CensusDateSID,Inpat.Census.CensusDateTime,Inpat.Census501.CensusDateTime,Inpat.Census501Diagnosis.CensusDateTime,Inpat.Census535.CensusDateTime,Inpat.CensusDiagnosis.CensusDateTime,Inpat.CensusICDProcedure.CensusDateTime,Inpat.CensusSurgicalProcedure.CensusDateTime,Inpat.Inpatient.DischargeDateTime,Inpat.Inpatient501Transaction.DischargeDateTime,Inpat.Inpatient501TransactionDiagnosis.DischargeDateTime,Inpat.Inpatient535Multiple.DischargeDateTime,Inpat.Inpatient535Transaction.DischargeDateTime,Inpat.InpatientDiagnosis.DischargeDateTime,Inpat.InpatientFeeBasis.DischargeDateTime,Inpat.InpatientFeeDiagnosis.DischargeDateTime,Inpat.InpatientICDProcedure.DischargeDateTime,Inpat.InpatientSurgicalProcedure.DischargeDateTime</t>
+    <t>Inpat.Census.CensusDateSID
+Inpat.Census.CensusDateTime
+Inpat.Census501.CensusDateTime
+Inpat.Census501Diagnosis.CensusDateTime
+Inpat.Census535.CensusDateTime
+Inpat.CensusDiagnosis.CensusDateTime
+Inpat.CensusICDProcedure.CensusDateTime
+Inpat.CensusSurgicalProcedure.CensusDateTime
+Inpat.Inpatient.DischargeDateTime
+Inpat.Inpatient501Transaction.DischargeDateTime
+Inpat.Inpatient501TransactionDiagnosis.DischargeDateTime
+Inpat.Inpatient535Multiple.DischargeDateTime
+Inpat.Inpatient535Transaction.DischargeDateTime
+Inpat.InpatientDiagnosis.DischargeDateTime
+Inpat.InpatientFeeBasis.DischargeDateTime
+Inpat.InpatientFeeDiagnosis.DischargeDateTime
+Inpat.InpatientICDProcedure.DischargeDateTime
+Inpat.InpatientSurgicalProcedure.DischargeDateTime</t>
   </si>
   <si>
     <t>Diagnosis.ToTime</t>
@@ -1160,7 +1177,8 @@
   </si>
   <si>
     <t>Inpat.InpatientCPTProcedure.CPTIEN
-Dim.CPT.CPTCode,Dim.CPT.CPTCode</t>
+Dim.CPT.CPTCode
+Dim.CPT.CPTCode</t>
   </si>
   <si>
     <t>./code</t>
@@ -1188,7 +1206,8 @@
   </si>
   <si>
     <t>Inpat.InpatientCPTProcedure.CPTIEN
-Dim.CPT.CPTName,Dim.CPT.CPTName</t>
+Dim.CPT.CPTName
+Dim.CPT.CPTName</t>
   </si>
   <si>
     <t>CV.displayName</t>
@@ -1296,7 +1315,23 @@
     <t>441: reference based on PTF - PATIENT (45-.01)</t>
   </si>
   <si>
-    <t>Inpat.Census.PatientIEN,Inpat.Census501.PatientIEN,Inpat.Census501.PatientSID,Inpat.Census535.PatientIEN,Inpat.CensusDiagnosis.PatientIEN,Inpat.CensusICDProcedure.PatientIEN,Inpat.CensusSurgicalProcedure.PatientIEN,Inpat.Inpatient.PatientIEN,Inpat.Inpatient501Transaction.PatientIEN,Inpat.Inpatient535Transaction.PatientIEN,Inpat.InpatientDiagnosis.PatientIEN,Inpat.InpatientDischargeDiagnosis.PatientIEN,Inpat.InpatientFeeBasis.PatientIEN,Inpat.InpatientFeeDiagnosis.PatientIEN,Inpat.InpatientICDProcedure.PatientIEN,Inpat.InpatientSurgicalProcedure.PatientIEN,Inpat.PresentOnAdmission.PatientIEN</t>
+    <t>Inpat.Census.PatientIEN
+Inpat.Census501.PatientIEN
+Inpat.Census501.PatientSID
+Inpat.Census535.PatientIEN
+Inpat.CensusDiagnosis.PatientIEN
+Inpat.CensusICDProcedure.PatientIEN
+Inpat.CensusSurgicalProcedure.PatientIEN
+Inpat.Inpatient.PatientIEN
+Inpat.Inpatient501Transaction.PatientIEN
+Inpat.Inpatient535Transaction.PatientIEN
+Inpat.InpatientDiagnosis.PatientIEN
+Inpat.InpatientDischargeDiagnosis.PatientIEN
+Inpat.InpatientFeeBasis.PatientIEN
+Inpat.InpatientFeeDiagnosis.PatientIEN
+Inpat.InpatientICDProcedure.PatientIEN
+Inpat.InpatientSurgicalProcedure.PatientIEN
+Inpat.PresentOnAdmission.PatientIEN</t>
   </si>
   <si>
     <t>Diagnosis.Diagnosis[CodeTableDetail.Diagnosis].Code</t>
@@ -1555,7 +1590,24 @@
     <t>445: source value based on PTF - ADMISSION DATE (45-2)</t>
   </si>
   <si>
-    <t>Inpat.Census.AdmitDateSID,Inpat.Census.AdmitDateTime,Inpat.Census501.AdmitDateTime,Inpat.Census501Diagnosis.AdmitDateTime,Inpat.Census535.AdmitDateTime,Inpat.CensusDiagnosis.AdmitDateTime,Inpat.CensusICDProcedure.AdmitDateTime,Inpat.CensusSurgicalProcedure.AdmitDateTime,Inpat.Inpatient.AdmitDateTime,Inpat.Inpatient501Multiple.AdmitDateTime,Inpat.Inpatient501Transaction.AdmitDateTime,Inpat.Inpatient535Multiple.AdmitDateTime,Inpat.Inpatient535Transaction.AdmitDateTime,Inpat.InpatientDischargeDiagnosis.AdmitDateTime,Inpat.InpatientFeeBasis.AdmitDateTime,Inpat.InpatientFeeDiagnosis.AdmitDateTime,Inpat.InpatientICDProcedure.AdmitDateTime,Inpat.InpatientSurgicalProcedure.AdmitDateTime</t>
+    <t>Inpat.Census.AdmitDateSID
+Inpat.Census.AdmitDateTime
+Inpat.Census501.AdmitDateTime
+Inpat.Census501Diagnosis.AdmitDateTime
+Inpat.Census535.AdmitDateTime
+Inpat.CensusDiagnosis.AdmitDateTime
+Inpat.CensusICDProcedure.AdmitDateTime
+Inpat.CensusSurgicalProcedure.AdmitDateTime
+Inpat.Inpatient.AdmitDateTime
+Inpat.Inpatient501Multiple.AdmitDateTime
+Inpat.Inpatient501Transaction.AdmitDateTime
+Inpat.Inpatient535Multiple.AdmitDateTime
+Inpat.Inpatient535Transaction.AdmitDateTime
+Inpat.InpatientDischargeDiagnosis.AdmitDateTime
+Inpat.InpatientFeeBasis.AdmitDateTime
+Inpat.InpatientFeeDiagnosis.AdmitDateTime
+Inpat.InpatientICDProcedure.AdmitDateTime
+Inpat.InpatientSurgicalProcedure.AdmitDateTime</t>
   </si>
   <si>
     <t>Diagnosis.FromTime</t>
@@ -1716,7 +1768,8 @@
     <t>Inpat.Inpatient.PrincipalDiagnosisICDIEN</t>
   </si>
   <si>
-    <t>Diagnosis.Diagnosis,Diagnosis.DiagnosisType</t>
+    <t>Diagnosis.Diagnosis
+Diagnosis.DiagnosisType</t>
   </si>
   <si>
     <t>Encounter.reasonCode:va-principle.coding.display</t>
@@ -1773,7 +1826,8 @@
     <t>449: source value based on PTF - SECONDARY DIAGNOSIS 1-24 &gt; ICD DIAGNOSIS - CODE NUMBER (45-79.* &gt; 80-.01)</t>
   </si>
   <si>
-    <t>Dim.ICD10.ICD10Code,Dim.ICD9.ICD9Code</t>
+    <t>Dim.ICD10.ICD10Code
+Dim.ICD9.ICD9Code</t>
   </si>
   <si>
     <t>Encounter.reasonCode:va-secondary.coding.display</t>
@@ -1824,7 +1878,8 @@
     <t>450: source value based on PTF - PROCEDURE 1-5 &gt; ICD OPERATION/PROCEDURE - CODE NUMBER (45-45.01+to+45.05 &gt; 80.1-.01)</t>
   </si>
   <si>
-    <t>Dim.ICD10Procedure.ICD10ProcedureCode,Dim.ICD9Procedure.ICD9ProcedureCode</t>
+    <t>Dim.ICD10Procedure.ICD10ProcedureCode
+Dim.ICD9Procedure.ICD9ProcedureCode</t>
   </si>
   <si>
     <t>Encounter.reasonCode:va-procedure.coding.display</t>
@@ -2092,7 +2147,9 @@
     <t>454: source value based on PTF - TRANSFERRING FACILITY (45-21.1)</t>
   </si>
   <si>
-    <t>Inpat.Census.TransferringFacility,Inpat.Inpatient.TransferFromFacility,Inpat.InpatientFeeBasis.TransferringFacility</t>
+    <t>Inpat.Census.TransferringFacility
+Inpat.Inpatient.TransferFromFacility
+Inpat.InpatientFeeBasis.TransferringFacility</t>
   </si>
   <si>
     <t>Encounter.hospitalization.admitSource</t>
@@ -2134,7 +2191,9 @@
     <t>955: terminologyMaps using VF_SourceOfAdmission on PTF - SOURCE OF ADMISSION &gt; SOURCE OF ADMISSION - PTF CODE (45-20 &gt; 45.1-.01)</t>
   </si>
   <si>
-    <t>Inpat.Census.AdmitSourceIEN,Inpat.Inpatient.AdmitSourceIEN,Inpat.InpatientFeeBasis.AdmitSourceIEN
+    <t>Inpat.Census.AdmitSourceIEN
+Inpat.Inpatient.AdmitSourceIEN
+Inpat.InpatientFeeBasis.AdmitSourceIEN
 Dim.AdmitSource.AdmitSourceCode</t>
   </si>
   <si>
@@ -2294,7 +2353,9 @@
     <t>455: source value based on PTF - RECEIVING FACILITY (45-76.1)</t>
   </si>
   <si>
-    <t>Inpat.Census.ReceivingFacility,Inpat.Inpatient.TransferToFacility,Inpat.InpatientFeeBasis.ReceivingFacility</t>
+    <t>Inpat.Census.ReceivingFacility
+Inpat.Inpatient.TransferToFacility
+Inpat.InpatientFeeBasis.ReceivingFacility</t>
   </si>
   <si>
     <t>Encounter.hospitalization.dischargeDisposition</t>
@@ -2351,7 +2412,9 @@
     <t>456: source value based on PTF - PLACE OF DISPOSITION (45-75)</t>
   </si>
   <si>
-    <t>Inpat.Census.PlaceOfDispositionIEN,Inpat.Inpatient.PlaceOfDispositionIEN,Inpat.InpatientFeeBasis.PlaceOfDispositionIEN</t>
+    <t>Inpat.Census.PlaceOfDispositionIEN
+Inpat.Inpatient.PlaceOfDispositionIEN
+Inpat.InpatientFeeBasis.PlaceOfDispositionIEN</t>
   </si>
   <si>
     <t>Encounter.hospitalization.dischargeDisposition.coding.display</t>
@@ -2517,10 +2580,13 @@
     <t>461: reference based on PTF - FACILITY (45-3)</t>
   </si>
   <si>
-    <t>Inpat.Census.DischargeFacility,Inpat.Inpatient.DischargeFromFacility,Inpat.InpatientFeeBasis.DischargeFacility</t>
-  </si>
-  <si>
-    <t>Diagnosis.EnteredAt,Procedure.EnteredAt</t>
+    <t>Inpat.Census.DischargeFacility
+Inpat.Inpatient.DischargeFromFacility
+Inpat.InpatientFeeBasis.DischargeFacility</t>
+  </si>
+  <si>
+    <t>Diagnosis.EnteredAt
+Procedure.EnteredAt</t>
   </si>
   <si>
     <t>Encounter.location:va-facility.status</t>
@@ -2940,7 +3006,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="113.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.3984375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="87.9765625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
+++ b/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
+++ b/docs/StructureDefinition-EncounterInpatientEncounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
